--- a/Pricing Logic/modules/uploads/module_2_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_2_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="274">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ارز حبوبة رفيع - 1 كجم</t>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
   </si>
   <si>
     <t>دقيق الضحى - 1 كجم</t>
   </si>
   <si>
-    <t>نسكافيه 3*1 - 18 جم</t>
-  </si>
-  <si>
     <t>نسكافيه كلاسيك - 1.8 جم</t>
   </si>
   <si>
@@ -55,16 +55,10 @@
     <t>صلصة هارفست - 320 جم</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال كانز - 320 مل</t>
-  </si>
-  <si>
     <t>لبن بخيره - 500 مل</t>
   </si>
   <si>
-    <t>سفن اب ستار كانز - 320 مل</t>
+    <t>عصير جهينة تفاح - 235 مل</t>
   </si>
   <si>
     <t>عصير بيتى تفاح - 235 مل</t>
@@ -73,58 +67,13 @@
     <t>عصير بيتى كوكتيل - 235 مل</t>
   </si>
   <si>
-    <t>عصير بيتى برتقال - 235 مل</t>
-  </si>
-  <si>
-    <t>لبن بخيره - 1 لتر</t>
-  </si>
-  <si>
-    <t>لبن نيدو اساسى ازرق ظرف - 25 جم</t>
-  </si>
-  <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>مرقة ماجى دجاج شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>راني عصير خوخ حبيبات- 235 مل</t>
-  </si>
-  <si>
-    <t>البوادي حلاوة- 255 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
-  </si>
-  <si>
-    <t>لبن جهينة كامل الدسم - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير بيتى مانجو - 235 مل</t>
-  </si>
-  <si>
     <t>عصير بيتى اناناس - 235 مل</t>
   </si>
   <si>
-    <t>بيبسى كانز ستار - 320 مل</t>
-  </si>
-  <si>
     <t>حفاضات بامبرز عبوة التوفير مقاس 5 - 58 حفاضة</t>
   </si>
   <si>
-    <t>لبن جهينة مكس موز - 200 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة تفاح - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة برتقال - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة كوكتيل - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة جوافة - 1 لتر</t>
+    <t>صلصة هارفست ظرف - 30 جم</t>
   </si>
   <si>
     <t>عصير جهينة برتقال - 235 مل</t>
@@ -133,19 +82,22 @@
     <t>عصير بخيره مانجو - 200 مل</t>
   </si>
   <si>
+    <t>عصير بخيره جوافة - 200 مل</t>
+  </si>
+  <si>
     <t>أمريكانا فول مدمس ساده- 400 جم</t>
   </si>
   <si>
-    <t>كلوركس كلور ابيض - 950 مل</t>
-  </si>
-  <si>
-    <t>بيبسى تربو - 390 مل</t>
-  </si>
-  <si>
-    <t>كوكا كولا جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>سبرايت جيب - 240 مل</t>
+    <t>مشروب كادبوري مشروب كاكاو - 30 جم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير مانجو حبيبات- 235 مل</t>
   </si>
   <si>
     <t>فانتا برتقال جيب - 240 مل</t>
@@ -154,19 +106,25 @@
     <t>اندومى لحم بقرى اكواب - 60 جم</t>
   </si>
   <si>
+    <t>بسكويت هالى ساندويتش شوكولاتة بالمارشميلو - 7 جنية</t>
+  </si>
+  <si>
     <t>حلواني حلاوة طحينية سادة الحلوة- 4 كجم</t>
   </si>
   <si>
-    <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
-  </si>
-  <si>
-    <t>لبن المراعي شيكولاتة وفر جنية- 200 مل</t>
-  </si>
-  <si>
-    <t>حلاوة الرشيدى الميزان - 545 جم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
+    <t>بن عبد المعبود سادة فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى تريتس شيكولاتة - 200 مل</t>
+  </si>
+  <si>
+    <t>طحينة الرشيدى الميزان ظرف - 21 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيبسى مينى تربو - 250 مل</t>
   </si>
   <si>
     <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
@@ -178,31 +136,25 @@
     <t>هارفست فول مدمس سادة - 400 جم</t>
   </si>
   <si>
-    <t>سردين دولفين بارد - 125 جم</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 700 مل</t>
+    <t>تونة دولفين مفتتة حار - 140 جم</t>
+  </si>
+  <si>
+    <t>ريحانة فلفل أسود مطحون- 20 جم</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1 لتر</t>
   </si>
   <si>
     <t>كوكا كولا - 1.45 لتر</t>
   </si>
   <si>
-    <t>نسكافيه 3*1 بندق 24 ظرف - 18 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس مقاس 3 - 80 حفاضة</t>
-  </si>
-  <si>
-    <t>شامبو كلير رجالى ازرق اخضر و اسود - 5 مل</t>
-  </si>
-  <si>
-    <t>فاين فودز مرقة خضار 8 مكعب- 72 جم</t>
-  </si>
-  <si>
-    <t>كوفى بريك 2*1 - 11 جم</t>
+    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 520 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال فانيليا  5 قطع حجم جديد - 43.75 جم</t>
   </si>
   <si>
     <t>كابتشينو كوفى بريك موكا - 18.5 جم</t>
@@ -226,94 +178,55 @@
     <t>كنور خلطة كفتة  عرض خاص- 35 جم</t>
   </si>
   <si>
-    <t>حفاضات بامبرز عبوة التوفير مقاس 2 - 60 حفاضة</t>
-  </si>
-  <si>
     <t>حفاضات بامبرز عبوة التوفير مقاس 1 - 60 حفاضة</t>
   </si>
   <si>
-    <t>عدس حبوبة اصفر - 500 جم</t>
-  </si>
-  <si>
-    <t>عدس حبوبة بجبة - 500 جم</t>
+    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
   </si>
   <si>
     <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
   </si>
   <si>
-    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
-  </si>
-  <si>
     <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
   </si>
   <si>
-    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل نعناع - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
-  </si>
-  <si>
-    <t>فانتا برتقال - 1.45 لتر</t>
-  </si>
-  <si>
-    <t>سبرايت - 2.45 لتر</t>
+    <t>سبرايت - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>طحينة حلوانى - 770 جم</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 ريتش - 21 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 130 جم</t>
   </si>
   <si>
     <t>جبنة كيرى بالقشطة - 8 قطعه</t>
   </si>
   <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
     <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
   </si>
   <si>
     <t>فيجارو بسكويت - 5 ج</t>
   </si>
   <si>
-    <t>مارى بسكويت- 15 جنية</t>
-  </si>
-  <si>
-    <t>بسكويت جولى - 10 قطعه</t>
-  </si>
-  <si>
     <t>اوكسى جل اوتوماتيك بلاك - 900 جم</t>
   </si>
   <si>
-    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
-  </si>
-  <si>
     <t>حبوبة بسبوسة بجوز الهند- 380 جم</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
-  </si>
-  <si>
-    <t>نسكافيه 2*1 بدون سكر 24 ظرف - 10 جم</t>
-  </si>
-  <si>
     <t>جبنة رودس فيتا بيضاء - 500 جم</t>
   </si>
   <si>
-    <t>صلصة هاينز - 360 جم</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس قطع - 150 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة جيب مانع للتسريب كبير مقاس 4 - 58 حفاضة</t>
+    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
   </si>
   <si>
     <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
@@ -322,10 +235,13 @@
     <t>كوكا كولا - 0.95 لتر</t>
   </si>
   <si>
+    <t>فانتا تفاح احمر ستار - 320 مل</t>
+  </si>
+  <si>
     <t>سبرايت - 0.95 لتر</t>
   </si>
   <si>
-    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+    <t>موني حفاضات مقاس 4- 40 حفاضة</t>
   </si>
   <si>
     <t>سمن جنة - 700 جم</t>
@@ -349,33 +265,33 @@
     <t>رويال أعشاب قرفة - 12 فتلة</t>
   </si>
   <si>
-    <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر صفيحة - 4.25 كجم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا بلس مطبخ 5 رول + 1 رول هدية - 6 رول</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق - 2.5 كجم</t>
+    <t>رويال أعشاب كركديه - 50 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك -delisted 9 كجم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 6 رول + 2 رول هدية - 8 رول</t>
+  </si>
+  <si>
+    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق -Delisted 2.5 كجم</t>
   </si>
   <si>
     <t>كلوركس ابيض غيار - 1 كجم</t>
   </si>
   <si>
-    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+    <t>شويبس رمان جيب - 240 مل</t>
   </si>
   <si>
     <t>ارز الضحى - 1 كجم</t>
   </si>
   <si>
-    <t>فيبا سائل أطباق تفاح- 4 كجم</t>
-  </si>
-  <si>
     <t>جبنة رودس شيدر - 250 جم</t>
   </si>
   <si>
@@ -385,6 +301,9 @@
     <t>أطعم مرقة دجاج شريط - 8 جم</t>
   </si>
   <si>
+    <t>مكرونة شعرية كايرو - 400 جم</t>
+  </si>
+  <si>
     <t>مكرونة كايرو لسان عصفور - 400 جم</t>
   </si>
   <si>
@@ -394,10 +313,7 @@
     <t>مكرونة خطيرة لسان عصفور - 280 جم</t>
   </si>
   <si>
-    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 1 لتر</t>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
   </si>
   <si>
     <t>توينكيز ميني اوريچينال  - 24 عبوة</t>
@@ -406,19 +322,7 @@
     <t>ميني هوهوز كيك شوكولاتة ملفوف محشو بكريمة الفانيلا ومغطى بالكاكاو 24 عبوة</t>
   </si>
   <si>
-    <t>سائل غسيل اطباق بريل ليمون - 90 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس حديث الولادة مقاس 1 - 60 حفاضة</t>
-  </si>
-  <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>سبرايت اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
+    <t>شوكولاتة جلاكسـى سادة - 80 جم</t>
   </si>
   <si>
     <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
@@ -427,7 +331,7 @@
     <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
   </si>
   <si>
-    <t>كلوركس الوان ظرف - 210 جم</t>
+    <t>حلاوة البوادي - 970 جرام</t>
   </si>
   <si>
     <t>فيبا سائل اطباق  ليمون اخضر- 4 كجم</t>
@@ -436,61 +340,46 @@
     <t>مكرونة بساطة خواتم - 350 جم</t>
   </si>
   <si>
-    <t>مكرونة بساطة مرمرية - 350 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بامبرز بانتس مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>اوكسى نسيم الربيع -- 1.5 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>ماكسى كولا - 400 مل</t>
-  </si>
-  <si>
-    <t>ماكسى تفاح - 400 مل</t>
-  </si>
-  <si>
-    <t>بسكويت ماندولين بالشوكولاتة و الكراميل- 34 جم</t>
-  </si>
-  <si>
-    <t>مشروب بودرة كادبورى شوكولاتة ساخنة ٣ فى ١ - 300 جم</t>
-  </si>
-  <si>
-    <t>صابون كامى كلاسيك - 165 جم</t>
-  </si>
-  <si>
-    <t>فانتا برتقال اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>برسيل يدوى لافندر - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -. 40 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسى نسيم الربيع --Delisted 1.5 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بيبى دراى عبوة التوفير مقاس 6 - 48 حفاضة</t>
   </si>
   <si>
     <t>حفاضات بامبرز بانتس مقاس 6 - 48 حفاضة</t>
   </si>
   <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
+  </si>
+  <si>
     <t>ميرندا برتقال - 1.47 لتر</t>
   </si>
   <si>
-    <t>طحينة البوادى ظرف - 42 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر ظرف - 55 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>مولبد ماكسى مضغوطة طويل جدا 20 + 4 فوطة ميجا توفير - 24 فوطة</t>
+    <t>طحينة البوادى ظرف - 22 جرام</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو بار مغطى بالشوكولاتة- 3 جنية</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 2 كجم</t>
   </si>
   <si>
     <t>يامى نودلز طعم الشطه الحارة- 70 جم</t>
@@ -508,16 +397,16 @@
     <t>مسحوق غسيل فل الترا مسك اوتوماتيك - 12 كجم</t>
   </si>
   <si>
-    <t>ليدر جل عادى للابيض و الوان - 50 جم</t>
+    <t>سمن كريستال ابيض - 700 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
   </si>
   <si>
     <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
   </si>
   <si>
-    <t>عصير جهينة بيور كوكتيل - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة بيور برتقال - 235 مل</t>
+    <t>عصير جهينة بيور جوافة كوكتيل - 235 مل</t>
   </si>
   <si>
     <t>شاى ليبتون اخضر - 25 فتلة</t>
@@ -526,43 +415,34 @@
     <t>ليبتون شاي أخضر بدون مرارة - 25 فتلة</t>
   </si>
   <si>
-    <t>تونة دولفين جولد فصوص حار - 170 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
-  </si>
-  <si>
-    <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
-  </si>
-  <si>
-    <t>امريكانا فول مدمس بالصلصة والتسبيكة - 400 جم</t>
+    <t>حبوبة خل - 500 مل</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى ياسمين - 1 كجم</t>
   </si>
   <si>
     <t>مسحوق ليدر عادى ياسمين - 2 كجم</t>
   </si>
   <si>
-    <t>اريال يدوى بلمسه داونى - 2 كجم</t>
-  </si>
-  <si>
     <t>كلوركس الوان - 750 مل</t>
   </si>
   <si>
     <t>حلاوة بار رويال تيست  - 50 جم</t>
   </si>
   <si>
+    <t>مربى البوادى فراولة - 365 جم</t>
+  </si>
+  <si>
     <t>مربى البوادى تين - 200 جم</t>
   </si>
   <si>
-    <t>مربى البوادى مشمش - 680 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مقشور بالصلصه خصم %15 - 400 جم</t>
+    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
   </si>
   <si>
     <t>بسكوت ويفر بالكاكاو محشو بكريمه الشيكولاتة HD - 7 جنية</t>
   </si>
   <si>
-    <t>حفاضات بى بم ميجا مقاس 5 - 76 حفاضة</t>
+    <t>بسكويت اولكر فينجر كاكاو - 10 جنية</t>
   </si>
   <si>
     <t>كوفى بريك 3*1 - 18 جم</t>
@@ -571,12 +451,21 @@
     <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 5 - 52 حفاضة</t>
   </si>
   <si>
-    <t>حلو الشام كريم كراميل - 80 جم</t>
-  </si>
-  <si>
     <t>مسحوق ليدر عادى ياسمين 12+1 هدية - 145 جم</t>
   </si>
   <si>
+    <t>اندومى لحم بقرى - 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى خضار بالزيت عرض 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ بالكارى عرض 44  كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى شعرية مقلية عرض 44  كيس - 80 جم</t>
+  </si>
+  <si>
     <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
   </si>
   <si>
@@ -586,22 +475,10 @@
     <t>اوكسى جل يدوى لافندر - 90 جم</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى نسيم الربيع - 36 كيس 50 جم</t>
-  </si>
-  <si>
     <t>اوكسى جل يدوى لافندر - 185 جم</t>
   </si>
   <si>
-    <t>اوكسى جل بلاك - 185 جم</t>
-  </si>
-  <si>
-    <t>راني عصير مشروب فراولة وموز - 235 مل</t>
-  </si>
-  <si>
-    <t>صابون لوكس بشرة نضرة - 75 جم</t>
+    <t>عصير جهينة تفاح كمثرى - 235 مل</t>
   </si>
   <si>
     <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
@@ -613,19 +490,7 @@
     <t>سمن جنة نيوزلاندى - 700 جم</t>
   </si>
   <si>
-    <t>عصير جهينة مكس بيرى - 235 مل</t>
-  </si>
-  <si>
-    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
-  </si>
-  <si>
-    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
-  </si>
-  <si>
-    <t>تمارا مناديل من زينه 3 طبقة عرض خاص - 444 منديل</t>
-  </si>
-  <si>
-    <t>عصير جهينة مكس بيرى - 1 لتر</t>
+    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
   </si>
   <si>
     <t>اوكسى يدوى 16كيس - 110 جم</t>
@@ -634,10 +499,7 @@
     <t>اوكسى يدوى نسيم الشرق - 16 كيس delisted 110 جم</t>
   </si>
   <si>
-    <t>سائل اطباق وفير بلس ليمون اخضر - 40 جم</t>
-  </si>
-  <si>
-    <t>شويبس اناناس بلاستيك - 250 مل</t>
+    <t>المراعي جبنة فيتا بالشيدر - 250 جم</t>
   </si>
   <si>
     <t>اوكسى يدوى نسيم الشرق - 330 جم</t>
@@ -646,13 +508,16 @@
     <t>اوكسى يدوى نسيم الربيع -1 330 جم</t>
   </si>
   <si>
-    <t>اوكسى يدوى لافندر - 330 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر - 250 جم</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+    <t>اوكسى يدوى لافندر -Delisted 330 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 250 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر -Delisted 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى بلاك 290 جم</t>
   </si>
   <si>
     <t>مسحوق باهى يدوى لافندر - 60 جم</t>
@@ -661,7 +526,7 @@
     <t>اورانج كارت الكبير - 12 جنية</t>
   </si>
   <si>
-    <t>كل يوم عصير جوافة  - 200 مل</t>
+    <t>كل يوم عصير كوكتيل - 200 مل</t>
   </si>
   <si>
     <t>هوهوز شوكولاتة الملفوف المحشو بكريمة الفانيليا والمغطي بالكاكاو - 24 قطعة 5 جنية</t>
@@ -673,43 +538,40 @@
     <t>توينكيز دبل كريم حجم جديد كريمة اكثر- 5 جنية</t>
   </si>
   <si>
-    <t>صابون لوكس بشرة نضرة - 165 جم</t>
-  </si>
-  <si>
     <t>صابون لوكس بشرة مثالية - 165 جم</t>
   </si>
   <si>
-    <t>اوكسي يدوي لافندر - 175 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق 15 جنيه - 175 جم</t>
-  </si>
-  <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>سندة أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا مطبخ 3 طبقة 5 رول + 1 رول هدية 6 رول</t>
   </si>
   <si>
     <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
   </si>
   <si>
+    <t>فرست وان بطعم الكولا - 250 مل</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم الشعير و الاناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم البرتقال - 250 مل</t>
+  </si>
+  <si>
     <t>قوت سمنة ظرف طعم الزبدة الصفراء - 55 جم</t>
   </si>
   <si>
-    <t>سمنة قوت بطعم الزبدة الصفرا - 650 جم</t>
-  </si>
-  <si>
     <t>سمنة الاصيل اصفر - 750 جم</t>
   </si>
   <si>
     <t>اندومى سوبر مى خضار 5 جنيه - 56 جم</t>
   </si>
   <si>
-    <t>تيكا مارشملو كبير- 10 جنية</t>
-  </si>
-  <si>
-    <t>تيكا لبان تاتو - 1 جنية</t>
-  </si>
-  <si>
-    <t>صابون دوش  - 60 جم</t>
+    <t>سندة دقيق - 1 كجم</t>
   </si>
   <si>
     <t>مليكة صلصة طماطم صفيح - 800 جم</t>
@@ -718,21 +580,27 @@
     <t>زيووو إكسترا كرانشى طماطم - 5 جنية</t>
   </si>
   <si>
-    <t>زيووو كرانشى الشطة الحار - 5 جنية</t>
-  </si>
-  <si>
-    <t>زيووو شرائح كيرلي خضروات - 5 جنية</t>
+    <t>زيووو كرانشى الجبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى طماطم وريحان - 5 جنية</t>
   </si>
   <si>
     <t>زيووو شرائح كيرليى بيتزا - 5 جنية</t>
   </si>
   <si>
+    <t>زيووو شرائح كيرليى ليمون حلو - 5 جنية</t>
+  </si>
+  <si>
     <t>زيووو اراميش بافس جبنة - 5 جنية</t>
   </si>
   <si>
     <t>زيووو اراميش بافس فلفل حلو - 5 جنية</t>
   </si>
   <si>
+    <t>زيووو اراميش بافس سجق - 5 جنية</t>
+  </si>
+  <si>
     <t>بيك رولز شطة وليمون - 5 جنية</t>
   </si>
   <si>
@@ -742,30 +610,63 @@
     <t>بيك رولز كاتشب -حجم عائلي 15 جنية</t>
   </si>
   <si>
-    <t>كلوريل بقوة الاكسجين ازرق - 1 كجم</t>
+    <t>بيك رولز شطة وليمون -حجم عائلي 15 جنية</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو ستكس شوكولاتة مغطي شوكولاته بيضاءمحشو كاكاو وبندق 2 قطعه</t>
+  </si>
+  <si>
+    <t>كلوريل الوان بقوة الاكسجين احمر - 1 كجم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى كولا - 1 لتر</t>
   </si>
   <si>
     <t>جل باهى اسود - 115 جم</t>
   </si>
   <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 شوت - 9 جم</t>
+  </si>
+  <si>
     <t>اولويز ماكسى سميكة طويل جدا بالالوفيرا + 2 مجانا - 14 فوطة</t>
   </si>
   <si>
     <t>اولويز ماكسى سميكة طويل بالالوفيرا + 2 مجانا - 16 فوطة</t>
   </si>
   <si>
+    <t>جبنة ابو الولد كريمى سبريد كلاسيك 20 جنيه - 100 جم</t>
+  </si>
+  <si>
     <t>جبنة ابو الولد كريمى سبريد شيدر 20 جنيه - 100 جم</t>
   </si>
   <si>
+    <t>جيلى كنج كولا لاذعة - 30 جم</t>
+  </si>
+  <si>
     <t>شوكولاتة تاوتاو كرانش بالكاكاو - 12 قطعه</t>
   </si>
   <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ ﻛﺎﻛﺎﻭ - 5 جنية</t>
+  </si>
+  <si>
     <t>ويفر تاوتاو كليك شوكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
-    <t>مناديل فاميليا بلس مطبخ 2 طبقة - 2 رول</t>
-  </si>
-  <si>
     <t>مناديل بابيا تواليت 3 طبقة - 2 رول</t>
   </si>
   <si>
@@ -781,6 +682,9 @@
     <t>فاين برستيج عرض خاص 500 منديل  "6 شرينك" * 3 طبقة 500 منديل</t>
   </si>
   <si>
+    <t>فاين سمارت مناديل تواليت مضغوط 5+1 رول * 2 طبقة 6 رول</t>
+  </si>
+  <si>
     <t>مكرونة مرمرية بساطة - 1 كجم</t>
   </si>
   <si>
@@ -790,16 +694,13 @@
     <t>مكرونة خواتم بساطة - 1 كجم</t>
   </si>
   <si>
-    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
-  </si>
-  <si>
-    <t>بريل - 4 كجم</t>
+    <t>كمارا مصاصة طعم الفواكه محشو لبان - 50 قطعه</t>
+  </si>
+  <si>
+    <t>بيتي عصير تفاح عرض خاص27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيتي عصير كوكتيل عرض خاص 27ج - 1 لتر</t>
   </si>
   <si>
     <t>كريم فاتيكا بالصبار والزيتون +10%  خصم - 190 مل</t>
@@ -817,21 +718,18 @@
     <t>فاتيكا شامبو الثوم+15% خصم- 360 مل</t>
   </si>
   <si>
-    <t>يامى نودلز طعم اللحم - 55 جم</t>
-  </si>
-  <si>
-    <t>مولفكس بريميوم جامبو اقتصادي مقاس 2 ميني- 58 حفاضة</t>
+    <t>برسيل جل لافندر - 70 جم</t>
   </si>
   <si>
     <t>مولفيكس بريميوم ماكسى جامبو اقتصادى  مقاس4- 56 حفاضة</t>
   </si>
   <si>
+    <t>مولفيكس بريميوم جامبو اقتصادى مقاس5 كبير- 56 حفاضة</t>
+  </si>
+  <si>
     <t>دومتي جبنة فيتا بلس - 500 جم</t>
   </si>
   <si>
-    <t>دومتي جبنة اسطنبولي بلس - 500 جم</t>
-  </si>
-  <si>
     <t>دومتي جبنة فيتا بلس رومي - 500 جم</t>
   </si>
   <si>
@@ -850,79 +748,88 @@
     <t>فانتا برتقال -10% زياده - 355 مل</t>
   </si>
   <si>
-    <t>باى لاك معمول ب السمسم محشو ب التمر - 5 جنية</t>
+    <t>زيووو شرائح بالت خضروات - 65 جم</t>
   </si>
   <si>
     <t>اريال اوتوماتيك مسحوق لافندرعرض 400جرام-- 2.9 كجم</t>
   </si>
   <si>
+    <t>تويتش مشروب شعيرغازي  بطعم الخوخ - 330 مل</t>
+  </si>
+  <si>
     <t>اولويز الترا سليم 3*1 طويل -عرض 22+4 مجانا 26 فوطة</t>
   </si>
   <si>
+    <t>شورتى بسكويت - 10 جنية</t>
+  </si>
+  <si>
+    <t>سولا فواكه - 240 قطعه</t>
+  </si>
+  <si>
+    <t>ديرى  مثلثات - 8 قطعه</t>
+  </si>
+  <si>
     <t>جبنة ديرى فيتا بلس  - 125 جم</t>
   </si>
   <si>
-    <t>جبنة ديرى فيتا  - 250 جم</t>
-  </si>
-  <si>
-    <t>جبنة ديرى فيتا بلس - 500 جم</t>
-  </si>
-  <si>
     <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
   </si>
   <si>
-    <t>جليد مالتي سبراي سحر الشرق - 460 مل</t>
-  </si>
-  <si>
-    <t>جبنة باندا فيتا 250 جرام</t>
+    <t>فيانسيه شامبو 7فى1 اكياس بالأفوكادووالزيتون 5 مل</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>ماندولين ويفر جديد 10 جنيه  - 33 جم</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
   </si>
   <si>
     <t>بونكس اوتوماتيك بلمسة الداوني - 9 كجم</t>
   </si>
   <si>
-    <t>راز مينى كب كيك 8 قطع راز ذهبي - 16 كيس</t>
-  </si>
-  <si>
-    <t>شاي ريد ليبل - 40 جم</t>
-  </si>
-  <si>
     <t>البوادي مربى كريمي مشمش - 365 جرام</t>
   </si>
   <si>
-    <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>فلفيتا منعم ومعطر منسوجات نعومة الأطفال - 3 لتر</t>
+    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس ماكسى ضد البكتريا ميجا مقاس 4 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس كبير جدا ضد البكتريا ميجا مقاس 6 - 60 حفاضة</t>
   </si>
   <si>
     <t>الرشيدي الميزان حلاوة - 960 جم</t>
   </si>
   <si>
-    <t>الرشيدي الميزان حلاوة طحينية- 760 جم</t>
-  </si>
-  <si>
-    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
-  </si>
-  <si>
-    <t>مكرونة كايرو اسباجيتى - 1 كجم</t>
+    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>بوريو بسكويت بالكاكاو والفانيليا 8+2 قطع 50 جرام</t>
   </si>
   <si>
     <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
   </si>
   <si>
-    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
-  </si>
-  <si>
     <t>شوكولاته تابلت حشو كريمة كاكاو - 10 جنية</t>
   </si>
   <si>
-    <t>اندومى فراخ - 5 جنية 56 جم</t>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
   </si>
   <si>
     <t>اريال اوتوماتيك برائحة الداوني -- 1 كجم</t>
   </si>
   <si>
-    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+    <t>المراعي جبنة فيتا بالشيدر -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنه رومي-عرض الكل كسبان 500 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -1286,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1317,70 +1224,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>248.75</v>
+        <v>834.5</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>270.75</v>
+        <v>584</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1584</v>
+        <v>276.75</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>4080</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1397,539 +1304,539 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4080</v>
+        <v>196.75</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>270</v>
+        <v>491.5</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>51.75</v>
+        <v>188.25</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2484</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>330.75</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>491.5</v>
+        <v>200.25</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>332.5</v>
+        <v>1094.25</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>189.75</v>
+        <v>364.75</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>186</v>
+        <v>48.75</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>186.5</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>151</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>441.75</v>
+        <v>182.25</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>963</v>
+        <v>134.75</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>152</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>240.75</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>40.75</v>
+        <v>16.75</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>733.5</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>366.75</v>
+        <v>100.5</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>161</v>
+        <v>426</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>39.75</v>
+        <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>161</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>715.5</v>
+        <v>100.5</v>
       </c>
       <c r="E25" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>404</v>
+        <v>804</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>214</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1074</v>
+        <v>296.25</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>214</v>
+        <v>523</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>44.75</v>
+        <v>188.75</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>247</v>
+        <v>563</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>325</v>
+        <v>407.25</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>248</v>
+        <v>624</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>551</v>
+        <v>299</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>305</v>
+        <v>824</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>194</v>
+        <v>334.75</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>307</v>
+        <v>941</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>194</v>
+        <v>840</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>326</v>
+        <v>941</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>326.75</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>344</v>
+        <v>949</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>1094.25</v>
+        <v>430</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>344</v>
+        <v>951</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>364.75</v>
+        <v>276.25</v>
       </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>411</v>
+        <v>951</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>287.75</v>
+        <v>3315</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>413</v>
+        <v>957</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>342</v>
+        <v>287.25</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>414</v>
+        <v>963</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -1938,1035 +1845,1035 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>329</v>
+        <v>427.5</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>415</v>
+        <v>963</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>342</v>
+        <v>71.25</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>416</v>
+        <v>990</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>343.5</v>
+        <v>556.25</v>
       </c>
       <c r="E40" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>417</v>
+        <v>1007</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>181.75</v>
+        <v>107.5</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>420</v>
+        <v>1274</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>134.75</v>
+        <v>395</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>426</v>
+        <v>1324</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>16.75</v>
+        <v>395.5</v>
       </c>
       <c r="E43" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>426</v>
+        <v>1339</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>100.5</v>
+        <v>408</v>
       </c>
       <c r="E44" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>426</v>
+        <v>1339</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>426</v>
+        <v>1414</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>402</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>560</v>
+        <v>1414</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>593</v>
+        <v>1414</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>126.75</v>
+        <v>1152</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>615</v>
+        <v>1414</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>298.75</v>
+        <v>576</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>616</v>
+        <v>1454</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>298.75</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>624</v>
+        <v>1492</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>298</v>
+        <v>794</v>
       </c>
       <c r="E51" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>824</v>
+        <v>1504</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>334.75</v>
+        <v>171.25</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>949</v>
+        <v>1728</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>428.25</v>
+        <v>304.75</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>950</v>
+        <v>1744</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>505.25</v>
+        <v>180.25</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1000</v>
+        <v>1895</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>261</v>
+        <v>790</v>
       </c>
       <c r="E55" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1053</v>
+        <v>1895</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>728</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>498</v>
+        <v>98.75</v>
       </c>
       <c r="E56" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1053</v>
+        <v>2054</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>83</v>
+        <v>1518</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1053</v>
+        <v>2054</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>996</v>
+        <v>63.25</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1053</v>
+        <v>2057</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>249</v>
+        <v>1482</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1124</v>
+        <v>2057</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>155.75</v>
+        <v>61.75</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1274</v>
+        <v>2104</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>394.75</v>
+        <v>85.75</v>
       </c>
       <c r="E61" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1324</v>
+        <v>2104</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>395.5</v>
+        <v>1029</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1339</v>
+        <v>2196</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>408</v>
+        <v>958.5</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1339</v>
+        <v>2196</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>319.5</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1409</v>
+        <v>2212</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>1350</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1409</v>
+        <v>2212</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>1687.5</v>
+        <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1409</v>
+        <v>2212</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>506.25</v>
+        <v>600</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1409</v>
+        <v>2212</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>33.75</v>
+        <v>37.5</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1446</v>
+        <v>2215</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>232.75</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1490</v>
+        <v>2215</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>586.5</v>
+        <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1504</v>
+        <v>2215</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>171</v>
+        <v>464</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1667</v>
+        <v>2244</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>136.5</v>
+        <v>205.75</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1667</v>
+        <v>2244</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1638</v>
+        <v>1234.5</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1705</v>
+        <v>2308</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>823</v>
+        <v>293.5</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1705</v>
+        <v>2308</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>411.5</v>
+        <v>880.5</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1801</v>
+        <v>2326</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>297.5</v>
+        <v>296.5</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1880</v>
+        <v>2331</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>133</v>
+        <v>247.25</v>
       </c>
       <c r="E77" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1880</v>
+        <v>2422</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D78">
-        <v>1596</v>
+        <v>775</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2049</v>
+        <v>2422</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>1332</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2049</v>
+        <v>2497</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>55.5</v>
+        <v>183.25</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2054</v>
+        <v>2506</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>63.25</v>
+        <v>131.25</v>
       </c>
       <c r="E81" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2054</v>
+        <v>2506</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1518</v>
+        <v>1312.5</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2057</v>
+        <v>2703</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1494</v>
+        <v>2508</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2057</v>
+        <v>2703</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84">
-        <v>62.25</v>
+        <v>104.5</v>
       </c>
       <c r="E84" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2104</v>
+        <v>2778</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>86.5</v>
+        <v>217.5</v>
       </c>
       <c r="E85" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2104</v>
+        <v>2821</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1038</v>
+        <v>534</v>
       </c>
       <c r="E86" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2196</v>
+        <v>2821</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>958.5</v>
+        <v>22.25</v>
       </c>
       <c r="E87" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2196</v>
+        <v>2836</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C88">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>319.5</v>
+        <v>95.5</v>
       </c>
       <c r="E88" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2212</v>
+        <v>2836</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>37.5</v>
+        <v>5730</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2212</v>
+        <v>2836</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D90">
-        <v>150</v>
+        <v>955</v>
       </c>
       <c r="E90" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2212</v>
+        <v>2912</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E91" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2212</v>
+        <v>2912</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>300</v>
+        <v>74.5</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2215</v>
+        <v>2916</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>464</v>
+        <v>938.5</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2215</v>
+        <v>2985</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2215</v>
+        <v>2985</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>58</v>
+        <v>101.25</v>
       </c>
       <c r="E95" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2244</v>
+        <v>3013</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>205.75</v>
+        <v>633.75</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>2244</v>
+        <v>3257</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>1234.5</v>
+        <v>363</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>2287</v>
+        <v>3475</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C98">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>874.5</v>
+        <v>504.75</v>
       </c>
       <c r="E98" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>2287</v>
+        <v>3577</v>
       </c>
       <c r="B99" t="s">
         <v>70</v>
@@ -2975,49 +2882,49 @@
         <v>25</v>
       </c>
       <c r="D99">
-        <v>291.5</v>
+        <v>339.25</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2308</v>
+        <v>3577</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C100">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D100">
-        <v>287.5</v>
+        <v>1017.75</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>2308</v>
+        <v>3658</v>
       </c>
       <c r="B101" t="s">
         <v>71</v>
       </c>
       <c r="C101">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>862.5</v>
+        <v>866.25</v>
       </c>
       <c r="E101" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>2322</v>
+        <v>3670</v>
       </c>
       <c r="B102" t="s">
         <v>72</v>
@@ -3026,15 +2933,15 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>265.25</v>
+        <v>125.75</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>2323</v>
+        <v>3671</v>
       </c>
       <c r="B103" t="s">
         <v>73</v>
@@ -3043,100 +2950,100 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="E103" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>2331</v>
+        <v>3674</v>
       </c>
       <c r="B104" t="s">
         <v>74</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>252.75</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>2336</v>
+        <v>3722</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D105">
-        <v>48.25</v>
+        <v>752.5</v>
       </c>
       <c r="E105" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>2336</v>
+        <v>3722</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D106">
-        <v>1158</v>
+        <v>150.5</v>
       </c>
       <c r="E106" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>2422</v>
+        <v>3961</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
       </c>
       <c r="C107">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>766.25</v>
+        <v>627</v>
       </c>
       <c r="E107" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>2422</v>
+        <v>3980</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C108">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>153.25</v>
+        <v>61.5</v>
       </c>
       <c r="E108" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>2655</v>
+        <v>3980</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -3145,661 +3052,661 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>202</v>
+        <v>1476</v>
       </c>
       <c r="E109" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>2669</v>
+        <v>3982</v>
       </c>
       <c r="B110" t="s">
         <v>78</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>507</v>
+        <v>37.5</v>
       </c>
       <c r="E110" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>2670</v>
+        <v>3982</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>446</v>
+        <v>1350</v>
       </c>
       <c r="E111" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>2774</v>
+        <v>3983</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>177.75</v>
+        <v>1476</v>
       </c>
       <c r="E112" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>2775</v>
+        <v>3983</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>211.5</v>
+        <v>61.5</v>
       </c>
       <c r="E113" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>2836</v>
+        <v>3984</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>5730</v>
+        <v>18.25</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>2836</v>
+        <v>3984</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>95.5</v>
+        <v>1314</v>
       </c>
       <c r="E115" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>2836</v>
+        <v>3985</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C116">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>955</v>
+        <v>37.5</v>
       </c>
       <c r="E116" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>2916</v>
+        <v>3985</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>961.75</v>
+        <v>1350</v>
       </c>
       <c r="E117" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>2985</v>
+        <v>3986</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>101.25</v>
+        <v>61.5</v>
       </c>
       <c r="E118" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>2985</v>
+        <v>3986</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>405</v>
+        <v>1476</v>
       </c>
       <c r="E119" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>2989</v>
+        <v>4001</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120">
-        <v>125.75</v>
+        <v>36.5</v>
       </c>
       <c r="E120" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>2989</v>
+        <v>4001</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>503</v>
+        <v>1314</v>
       </c>
       <c r="E121" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>2992</v>
+        <v>4030</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D122">
-        <v>825</v>
+        <v>258.75</v>
       </c>
       <c r="E122" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>2992</v>
+        <v>4030</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D123">
-        <v>206.25</v>
+        <v>776.25</v>
       </c>
       <c r="E123" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>3013</v>
+        <v>4326</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>633.75</v>
+        <v>903.5</v>
       </c>
       <c r="E124" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>3024</v>
+        <v>4940</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>109.5</v>
+        <v>245.25</v>
       </c>
       <c r="E125" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>3024</v>
+        <v>5080</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>328.5</v>
+        <v>253.5</v>
       </c>
       <c r="E126" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>3257</v>
+        <v>5110</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>362</v>
+        <v>675.75</v>
       </c>
       <c r="E127" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>3334</v>
+        <v>5128</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>167.5</v>
+        <v>252</v>
       </c>
       <c r="E128" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>3390</v>
+        <v>5491</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>266</v>
+        <v>289.75</v>
       </c>
       <c r="E129" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>3393</v>
+        <v>5513</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>202</v>
+        <v>371.75</v>
       </c>
       <c r="E130" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>3394</v>
+        <v>5729</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>202</v>
+        <v>577.5</v>
       </c>
       <c r="E131" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>3399</v>
+        <v>5733</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>505</v>
+        <v>593.5</v>
       </c>
       <c r="E132" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>3456</v>
+        <v>5769</v>
       </c>
       <c r="B133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>1608</v>
+        <v>27.75</v>
       </c>
       <c r="E133" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>3456</v>
+        <v>5769</v>
       </c>
       <c r="B134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>134</v>
+        <v>499.5</v>
       </c>
       <c r="E134" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>3475</v>
+        <v>5849</v>
       </c>
       <c r="B135" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>504.75</v>
+        <v>188</v>
       </c>
       <c r="E135" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>3478</v>
+        <v>5852</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>386.25</v>
+        <v>188.5</v>
       </c>
       <c r="E136" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>3557</v>
+        <v>5866</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C137">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>549</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>3557</v>
+        <v>5872</v>
       </c>
       <c r="B138" t="s">
         <v>98</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>1098</v>
+        <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>3557</v>
+        <v>6098</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D139">
-        <v>45.75</v>
+        <v>774.5</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>3557</v>
+        <v>6098</v>
       </c>
       <c r="B140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D140">
-        <v>2196</v>
+        <v>387.25</v>
       </c>
       <c r="E140" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>3576</v>
+        <v>6802</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C141">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>868.5</v>
+        <v>531</v>
       </c>
       <c r="E141" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>3576</v>
+        <v>6802</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C142">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>289.5</v>
+        <v>44.25</v>
       </c>
       <c r="E142" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>3658</v>
+        <v>6803</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>866.25</v>
+        <v>537</v>
       </c>
       <c r="E143" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>3670</v>
+        <v>6803</v>
       </c>
       <c r="B144" t="s">
         <v>101</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>125.25</v>
+        <v>44.75</v>
       </c>
       <c r="E144" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>3674</v>
+        <v>6968</v>
       </c>
       <c r="B145" t="s">
         <v>102</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>122.5</v>
+        <v>4852.5</v>
       </c>
       <c r="E145" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>3896</v>
+        <v>6968</v>
       </c>
       <c r="B146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C146">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>903</v>
+        <v>808.75</v>
       </c>
       <c r="E146" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>3896</v>
+        <v>7004</v>
       </c>
       <c r="B147" t="s">
         <v>103</v>
       </c>
       <c r="C147">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>301</v>
+        <v>368.25</v>
       </c>
       <c r="E147" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>3961</v>
+        <v>7005</v>
       </c>
       <c r="B148" t="s">
         <v>104</v>
@@ -3808,15 +3715,15 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>627</v>
+        <v>374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>3980</v>
+        <v>7457</v>
       </c>
       <c r="B149" t="s">
         <v>105</v>
@@ -3825,355 +3732,355 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1476</v>
+        <v>801</v>
       </c>
       <c r="E149" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>3980</v>
+        <v>7457</v>
       </c>
       <c r="B150" t="s">
         <v>105</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>61.5</v>
+        <v>133.5</v>
       </c>
       <c r="E150" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>3982</v>
+        <v>7629</v>
       </c>
       <c r="B151" t="s">
         <v>106</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>37.5</v>
+        <v>386</v>
       </c>
       <c r="E151" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>3982</v>
+        <v>7703</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>1350</v>
+        <v>162.25</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>3983</v>
+        <v>7706</v>
       </c>
       <c r="B153" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>1476</v>
+        <v>162</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>3983</v>
+        <v>7885</v>
       </c>
       <c r="B154" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>61.5</v>
+        <v>2490</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>3984</v>
+        <v>7885</v>
       </c>
       <c r="B155" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>18.25</v>
+        <v>207.5</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>3984</v>
+        <v>8155</v>
       </c>
       <c r="B156" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>1314</v>
+        <v>1071.75</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>3985</v>
+        <v>8155</v>
       </c>
       <c r="B157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D157">
-        <v>1350</v>
+        <v>357.25</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>3985</v>
+        <v>8355</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>37.5</v>
+        <v>326.75</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>3986</v>
+        <v>8356</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1476</v>
+        <v>327.5</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>3986</v>
+        <v>8600</v>
       </c>
       <c r="B160" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>61.5</v>
+        <v>199.5</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>4253</v>
+        <v>8907</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D161">
-        <v>171</v>
+        <v>983.25</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>4326</v>
+        <v>8907</v>
       </c>
       <c r="B162" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D162">
-        <v>903.5</v>
+        <v>327.75</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>4927</v>
+        <v>8923</v>
       </c>
       <c r="B163" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C163">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D163">
-        <v>389.5</v>
+        <v>1004.25</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>5076</v>
+        <v>8923</v>
       </c>
       <c r="B164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D164">
-        <v>222</v>
+        <v>334.75</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>5110</v>
+        <v>8926</v>
       </c>
       <c r="B165" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>675.75</v>
+        <v>462</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>5128</v>
+        <v>8927</v>
       </c>
       <c r="B166" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>252</v>
+        <v>858</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>5209</v>
+        <v>8927</v>
       </c>
       <c r="B167" t="s">
         <v>117</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D167">
-        <v>52</v>
+        <v>35.75</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>5209</v>
+        <v>8939</v>
       </c>
       <c r="B168" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>1560</v>
+        <v>180.5</v>
       </c>
       <c r="E168" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>5513</v>
+        <v>8943</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>367.75</v>
+        <v>75.75</v>
       </c>
       <c r="E169" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>5517</v>
+        <v>8943</v>
       </c>
       <c r="B170" t="s">
         <v>119</v>
@@ -4182,66 +4089,66 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="E170" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>5729</v>
+        <v>9083</v>
       </c>
       <c r="B171" t="s">
         <v>120</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>577.5</v>
+        <v>741</v>
       </c>
       <c r="E171" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>5733</v>
+        <v>9083</v>
       </c>
       <c r="B172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>593.5</v>
+        <v>61.75</v>
       </c>
       <c r="E172" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>5769</v>
+        <v>9126</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>27.75</v>
+        <v>424.5</v>
       </c>
       <c r="E173" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>5769</v>
+        <v>9129</v>
       </c>
       <c r="B174" t="s">
         <v>122</v>
@@ -4250,814 +4157,814 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>499.5</v>
+        <v>171.25</v>
       </c>
       <c r="E174" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>5852</v>
+        <v>9208</v>
       </c>
       <c r="B175" t="s">
         <v>123</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D175">
-        <v>188.75</v>
+        <v>892.5</v>
       </c>
       <c r="E175" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>5866</v>
+        <v>9208</v>
       </c>
       <c r="B176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D176">
-        <v>133.5</v>
+        <v>297.5</v>
       </c>
       <c r="E176" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>5872</v>
+        <v>9239</v>
       </c>
       <c r="B177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D177">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="E177" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>5976</v>
+        <v>9239</v>
       </c>
       <c r="B178" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D178">
-        <v>184.75</v>
+        <v>1032</v>
       </c>
       <c r="E178" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>6497</v>
+        <v>9253</v>
       </c>
       <c r="B179" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>824.5</v>
+        <v>65</v>
       </c>
       <c r="E179" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>6802</v>
+        <v>9253</v>
       </c>
       <c r="B180" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>531</v>
+        <v>780</v>
       </c>
       <c r="E180" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>6802</v>
+        <v>9374</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>44.25</v>
+        <v>332.5</v>
       </c>
       <c r="E181" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>6803</v>
+        <v>9608</v>
       </c>
       <c r="B182" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>44.75</v>
+        <v>459.75</v>
       </c>
       <c r="E182" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>6803</v>
+        <v>9613</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>537</v>
+        <v>465.5</v>
       </c>
       <c r="E183" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>6805</v>
+        <v>9760</v>
       </c>
       <c r="B184" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D184">
-        <v>60.75</v>
+        <v>403.5</v>
       </c>
       <c r="E184" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>6872</v>
+        <v>9786</v>
       </c>
       <c r="B185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>263</v>
+        <v>401.5</v>
       </c>
       <c r="E185" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>6872</v>
+        <v>9796</v>
       </c>
       <c r="B186" t="s">
         <v>131</v>
       </c>
       <c r="C186">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>789</v>
+        <v>30.25</v>
       </c>
       <c r="E186" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>6935</v>
+        <v>9796</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>107.75</v>
+        <v>1452</v>
       </c>
       <c r="E187" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>6936</v>
+        <v>9798</v>
       </c>
       <c r="B188" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>107.5</v>
+        <v>30.25</v>
       </c>
       <c r="E188" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>6946</v>
+        <v>9798</v>
       </c>
       <c r="B189" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>508</v>
+        <v>1452</v>
       </c>
       <c r="E189" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>7004</v>
+        <v>9854</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>364.75</v>
+        <v>161.5</v>
       </c>
       <c r="E190" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>7005</v>
+        <v>10115</v>
       </c>
       <c r="B191" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>374.5</v>
+        <v>151.5</v>
       </c>
       <c r="E191" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>7036</v>
+        <v>10125</v>
       </c>
       <c r="B192" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>228.25</v>
+        <v>280</v>
       </c>
       <c r="E192" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>7629</v>
+        <v>10254</v>
       </c>
       <c r="B193" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>383.5</v>
+        <v>478.75</v>
       </c>
       <c r="E193" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>7703</v>
+        <v>10394</v>
       </c>
       <c r="B194" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>164.25</v>
+        <v>104.75</v>
       </c>
       <c r="E194" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>7707</v>
+        <v>10407</v>
       </c>
       <c r="B195" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D195">
-        <v>163.5</v>
+        <v>26.5</v>
       </c>
       <c r="E195" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>8254</v>
+        <v>10407</v>
       </c>
       <c r="B196" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>1038</v>
+        <v>318</v>
       </c>
       <c r="E196" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>8254</v>
+        <v>10409</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C197">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="E197" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>8355</v>
+        <v>10409</v>
       </c>
       <c r="B198" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D198">
-        <v>326.75</v>
+        <v>17.5</v>
       </c>
       <c r="E198" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>8356</v>
+        <v>10449</v>
       </c>
       <c r="B199" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>326.75</v>
+        <v>204</v>
       </c>
       <c r="E199" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>8672</v>
+        <v>10449</v>
       </c>
       <c r="B200" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>8673</v>
+        <v>10461</v>
       </c>
       <c r="B201" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>104.25</v>
+        <v>48.75</v>
       </c>
       <c r="E201" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>8677</v>
+        <v>10461</v>
       </c>
       <c r="B202" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1164</v>
+        <v>585</v>
       </c>
       <c r="E202" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>8677</v>
+        <v>10516</v>
       </c>
       <c r="B203" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
       <c r="D203">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E203" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>8690</v>
+        <v>10516</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2142</v>
+        <v>600</v>
       </c>
       <c r="E204" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>8690</v>
+        <v>10574</v>
       </c>
       <c r="B205" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C205">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>89.25</v>
+        <v>1368</v>
       </c>
       <c r="E205" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>8754</v>
+        <v>10574</v>
       </c>
       <c r="B206" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>84.5</v>
+        <v>57</v>
       </c>
       <c r="E206" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>8754</v>
+        <v>10720</v>
       </c>
       <c r="B207" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D207">
-        <v>1014</v>
+        <v>896.25</v>
       </c>
       <c r="E207" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>8853</v>
+        <v>10720</v>
       </c>
       <c r="B208" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D208">
-        <v>104</v>
+        <v>298.75</v>
       </c>
       <c r="E208" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>8872</v>
+        <v>10991</v>
       </c>
       <c r="B209" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>343</v>
+        <v>96.75</v>
       </c>
       <c r="E209" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>8915</v>
+        <v>11090</v>
       </c>
       <c r="B210" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>183.75</v>
+        <v>365.75</v>
       </c>
       <c r="E210" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>8923</v>
+        <v>11091</v>
       </c>
       <c r="B211" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C211">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>1004.25</v>
+        <v>370.75</v>
       </c>
       <c r="E211" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>8923</v>
+        <v>11092</v>
       </c>
       <c r="B212" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C212">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>334.75</v>
+        <v>374.5</v>
       </c>
       <c r="E212" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>8939</v>
+        <v>11116</v>
       </c>
       <c r="B213" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>180.5</v>
+        <v>378.25</v>
       </c>
       <c r="E213" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>8944</v>
+        <v>11158</v>
       </c>
       <c r="B214" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>525</v>
+        <v>63</v>
       </c>
       <c r="E214" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>8944</v>
+        <v>11159</v>
       </c>
       <c r="B215" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>131.25</v>
+        <v>57.75</v>
       </c>
       <c r="E215" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>9069</v>
+        <v>11163</v>
       </c>
       <c r="B216" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>229.5</v>
+        <v>66.75</v>
       </c>
       <c r="E216" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>9081</v>
+        <v>11270</v>
       </c>
       <c r="B217" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1494</v>
+        <v>98</v>
       </c>
       <c r="E217" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>9081</v>
+        <v>11491</v>
       </c>
       <c r="B218" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>62.25</v>
+        <v>212.25</v>
       </c>
       <c r="E218" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>9085</v>
+        <v>11492</v>
       </c>
       <c r="B219" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C219">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>315.5</v>
+        <v>326.75</v>
       </c>
       <c r="E219" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>9085</v>
+        <v>11493</v>
       </c>
       <c r="B220" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C220">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>946.5</v>
+        <v>670.25</v>
       </c>
       <c r="E220" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>9113</v>
+        <v>11494</v>
       </c>
       <c r="B221" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C221">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>67.5</v>
+        <v>627</v>
       </c>
       <c r="E221" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>9113</v>
+        <v>11510</v>
       </c>
       <c r="B222" t="s">
         <v>158</v>
@@ -5066,32 +4973,32 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>810</v>
+        <v>594</v>
       </c>
       <c r="E222" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>9113</v>
+        <v>11510</v>
       </c>
       <c r="B223" t="s">
         <v>158</v>
       </c>
       <c r="C223">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D223">
-        <v>202.5</v>
+        <v>49.5</v>
       </c>
       <c r="E223" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>9129</v>
+        <v>11674</v>
       </c>
       <c r="B224" t="s">
         <v>159</v>
@@ -5100,2412 +5007,2412 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>171.25</v>
+        <v>145.25</v>
       </c>
       <c r="E224" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>9208</v>
+        <v>11676</v>
       </c>
       <c r="B225" t="s">
         <v>160</v>
       </c>
       <c r="C225">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>297.5</v>
+        <v>144.25</v>
       </c>
       <c r="E225" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>9208</v>
+        <v>11738</v>
       </c>
       <c r="B226" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C226">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>892.5</v>
+        <v>514.5</v>
       </c>
       <c r="E226" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>9239</v>
+        <v>11767</v>
       </c>
       <c r="B227" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C227">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="E227" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>9239</v>
+        <v>11768</v>
       </c>
       <c r="B228" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C228">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>1032</v>
+        <v>182.75</v>
       </c>
       <c r="E228" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>9253</v>
+        <v>11769</v>
       </c>
       <c r="B229" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="E229" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>9253</v>
+        <v>11772</v>
       </c>
       <c r="B230" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>780</v>
+        <v>144.25</v>
       </c>
       <c r="E230" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>9374</v>
+        <v>11775</v>
       </c>
       <c r="B231" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>332.25</v>
+        <v>246</v>
       </c>
       <c r="E231" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>9381</v>
+        <v>11778</v>
       </c>
       <c r="B232" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>32.5</v>
+        <v>94.75</v>
       </c>
       <c r="E232" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>9760</v>
+        <v>11808</v>
       </c>
       <c r="B233" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C233">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>413.75</v>
+        <v>62.75</v>
       </c>
       <c r="E233" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>9781</v>
+        <v>11828</v>
       </c>
       <c r="B234" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D234">
-        <v>656.25</v>
+        <v>128</v>
       </c>
       <c r="E234" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>9785</v>
+        <v>11836</v>
       </c>
       <c r="B235" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>377.75</v>
+        <v>119</v>
       </c>
       <c r="E235" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>9796</v>
+        <v>11846</v>
       </c>
       <c r="B236" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>1452</v>
+        <v>106.5</v>
       </c>
       <c r="E236" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>9796</v>
+        <v>11846</v>
       </c>
       <c r="B237" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>30.25</v>
+        <v>852</v>
       </c>
       <c r="E237" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>9798</v>
+        <v>11854</v>
       </c>
       <c r="B238" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1452</v>
+        <v>318.75</v>
       </c>
       <c r="E238" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>9798</v>
+        <v>11868</v>
       </c>
       <c r="B239" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C239">
         <v>3</v>
       </c>
       <c r="D239">
-        <v>30.25</v>
+        <v>107.75</v>
       </c>
       <c r="E239" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>9877</v>
+        <v>11868</v>
       </c>
       <c r="B240" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C240">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>1500</v>
+        <v>862</v>
       </c>
       <c r="E240" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>9877</v>
+        <v>11887</v>
       </c>
       <c r="B241" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C241">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>62.5</v>
+        <v>152</v>
       </c>
       <c r="E241" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>9877</v>
+        <v>11887</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3000</v>
+        <v>1216</v>
       </c>
       <c r="E242" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>9877</v>
+        <v>11894</v>
       </c>
       <c r="B243" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C243">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>750</v>
+        <v>238.75</v>
       </c>
       <c r="E243" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>9910</v>
+        <v>11942</v>
       </c>
       <c r="B244" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C244">
         <v>29</v>
       </c>
       <c r="D244">
-        <v>820</v>
+        <v>299</v>
       </c>
       <c r="E244" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>9910</v>
+        <v>11965</v>
       </c>
       <c r="B245" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C245">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>410</v>
+        <v>665.5</v>
       </c>
       <c r="E245" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>9920</v>
+        <v>12053</v>
       </c>
       <c r="B246" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C246">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>20.75</v>
+        <v>55.5</v>
       </c>
       <c r="E246" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>9920</v>
+        <v>12054</v>
       </c>
       <c r="B247" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>498</v>
+        <v>55.25</v>
       </c>
       <c r="E247" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>9922</v>
+        <v>12055</v>
       </c>
       <c r="B248" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="E248" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>9922</v>
+        <v>12057</v>
       </c>
       <c r="B249" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C249">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>21</v>
+        <v>54.75</v>
       </c>
       <c r="E249" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>10125</v>
+        <v>12139</v>
       </c>
       <c r="B250" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>280</v>
+        <v>220.25</v>
       </c>
       <c r="E250" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>10147</v>
+        <v>12146</v>
       </c>
       <c r="B251" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="E251" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>10254</v>
+        <v>12224</v>
       </c>
       <c r="B252" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>467.5</v>
+        <v>179.25</v>
       </c>
       <c r="E252" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>10394</v>
+        <v>12229</v>
       </c>
       <c r="B253" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>100</v>
+        <v>191.25</v>
       </c>
       <c r="E253" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>10409</v>
+        <v>12328</v>
       </c>
       <c r="B254" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>17.5</v>
+        <v>264</v>
       </c>
       <c r="E254" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>10409</v>
+        <v>12328</v>
       </c>
       <c r="B255" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D255">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="E255" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>10414</v>
+        <v>12343</v>
       </c>
       <c r="B256" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C256">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>41.5</v>
+        <v>46.5</v>
       </c>
       <c r="E256" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>10414</v>
+        <v>12345</v>
       </c>
       <c r="B257" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="E257" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>10448</v>
+        <v>12347</v>
       </c>
       <c r="B258" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C258">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>17</v>
+        <v>47.75</v>
       </c>
       <c r="E258" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>10448</v>
+        <v>12348</v>
       </c>
       <c r="B259" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>204</v>
+        <v>45.25</v>
       </c>
       <c r="E259" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>10461</v>
+        <v>12349</v>
       </c>
       <c r="B260" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>48.75</v>
+        <v>45.25</v>
       </c>
       <c r="E260" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>10461</v>
+        <v>12350</v>
       </c>
       <c r="B261" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>585</v>
+        <v>49.25</v>
       </c>
       <c r="E261" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>10530</v>
+        <v>12352</v>
       </c>
       <c r="B262" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C262">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>381.75</v>
+        <v>49.25</v>
       </c>
       <c r="E262" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>10530</v>
+        <v>12353</v>
       </c>
       <c r="B263" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C263">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>763.5</v>
+        <v>46.25</v>
       </c>
       <c r="E263" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>10574</v>
+        <v>12554</v>
       </c>
       <c r="B264" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>57</v>
+        <v>106.25</v>
       </c>
       <c r="E264" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>10574</v>
+        <v>12558</v>
       </c>
       <c r="B265" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1368</v>
+        <v>204.75</v>
       </c>
       <c r="E265" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>10720</v>
+        <v>12570</v>
       </c>
       <c r="B266" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C266">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>895.5</v>
+        <v>150.25</v>
       </c>
       <c r="E266" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>10720</v>
+        <v>12571</v>
       </c>
       <c r="B267" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C267">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>298.5</v>
+        <v>150.75</v>
       </c>
       <c r="E267" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>10722</v>
+        <v>12577</v>
       </c>
       <c r="B268" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D268">
-        <v>779</v>
+        <v>50.5</v>
       </c>
       <c r="E268" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>10722</v>
+        <v>12577</v>
       </c>
       <c r="B269" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>194.75</v>
+        <v>606</v>
       </c>
       <c r="E269" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>10991</v>
+        <v>12614</v>
       </c>
       <c r="B270" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>96.75</v>
+        <v>312.5</v>
       </c>
       <c r="E270" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>11158</v>
+        <v>12658</v>
       </c>
       <c r="B271" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>63</v>
+        <v>336.25</v>
       </c>
       <c r="E271" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>11159</v>
+        <v>12721</v>
       </c>
       <c r="B272" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>57.75</v>
+        <v>101.75</v>
       </c>
       <c r="E272" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>11163</v>
+        <v>12873</v>
       </c>
       <c r="B273" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>66.75</v>
+        <v>65.75</v>
       </c>
       <c r="E273" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>11180</v>
+        <v>12923</v>
       </c>
       <c r="B274" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>333.25</v>
+        <v>782.75</v>
       </c>
       <c r="E274" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>11181</v>
+        <v>12924</v>
       </c>
       <c r="B275" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>85.75</v>
+        <v>543.25</v>
       </c>
       <c r="E275" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>11270</v>
+        <v>12925</v>
       </c>
       <c r="B276" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>98</v>
+        <v>451.75</v>
       </c>
       <c r="E276" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <v>11271</v>
+        <v>12964</v>
       </c>
       <c r="B277" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>95.25</v>
+        <v>903</v>
       </c>
       <c r="E277" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <v>11290</v>
+        <v>12964</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D278">
-        <v>313.75</v>
+        <v>75.25</v>
       </c>
       <c r="E278" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
-        <v>11450</v>
+        <v>12979</v>
       </c>
       <c r="B279" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="E279" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280">
-        <v>11450</v>
+        <v>12979</v>
       </c>
       <c r="B280" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D280">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E280" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>11492</v>
+        <v>12980</v>
       </c>
       <c r="B281" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>322.25</v>
+        <v>720</v>
       </c>
       <c r="E281" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <v>11493</v>
+        <v>12980</v>
       </c>
       <c r="B282" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D282">
-        <v>666.25</v>
+        <v>45</v>
       </c>
       <c r="E282" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <v>11494</v>
+        <v>12992</v>
       </c>
       <c r="B283" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>627</v>
+        <v>320</v>
       </c>
       <c r="E283" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284">
-        <v>11504</v>
+        <v>12992</v>
       </c>
       <c r="B284" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="E284" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <v>11586</v>
+        <v>12993</v>
       </c>
       <c r="B285" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>73.25</v>
+        <v>320</v>
       </c>
       <c r="E285" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
-        <v>11587</v>
+        <v>12993</v>
       </c>
       <c r="B286" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D286">
-        <v>72.75</v>
+        <v>16</v>
       </c>
       <c r="E286" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <v>11625</v>
+        <v>13006</v>
       </c>
       <c r="B287" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C287">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D287">
-        <v>313.75</v>
+        <v>177.25</v>
       </c>
       <c r="E287" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288">
-        <v>11644</v>
+        <v>13006</v>
       </c>
       <c r="B288" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>353.5</v>
+        <v>1063.5</v>
       </c>
       <c r="E288" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289">
-        <v>11674</v>
+        <v>13023</v>
       </c>
       <c r="B289" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D289">
-        <v>145.25</v>
+        <v>50</v>
       </c>
       <c r="E289" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290">
-        <v>11676</v>
+        <v>13023</v>
       </c>
       <c r="B290" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>144.25</v>
+        <v>600</v>
       </c>
       <c r="E290" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291">
-        <v>11678</v>
+        <v>13028</v>
       </c>
       <c r="B291" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D291">
-        <v>67.5</v>
+        <v>200.5</v>
       </c>
       <c r="E291" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292">
-        <v>11681</v>
+        <v>13034</v>
       </c>
       <c r="B292" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D292">
-        <v>105</v>
+        <v>49.5</v>
       </c>
       <c r="E292" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293">
-        <v>11767</v>
+        <v>13034</v>
       </c>
       <c r="B293" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>183</v>
+        <v>594</v>
       </c>
       <c r="E293" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294">
-        <v>11768</v>
+        <v>13037</v>
       </c>
       <c r="B294" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D294">
-        <v>182.75</v>
+        <v>51.75</v>
       </c>
       <c r="E294" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295">
-        <v>11769</v>
+        <v>13037</v>
       </c>
       <c r="B295" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>179.25</v>
+        <v>621</v>
       </c>
       <c r="E295" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296">
-        <v>11772</v>
+        <v>13251</v>
       </c>
       <c r="B296" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D296">
-        <v>144.25</v>
+        <v>346.25</v>
       </c>
       <c r="E296" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>11793</v>
+        <v>13257</v>
       </c>
       <c r="B297" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D297">
-        <v>290.5</v>
+        <v>375</v>
       </c>
       <c r="E297" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298">
-        <v>11808</v>
+        <v>13257</v>
       </c>
       <c r="B298" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D298">
-        <v>62.75</v>
+        <v>750</v>
       </c>
       <c r="E298" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299">
-        <v>11828</v>
+        <v>13259</v>
       </c>
       <c r="B299" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C299">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D299">
-        <v>128</v>
+        <v>418.75</v>
       </c>
       <c r="E299" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300">
-        <v>11835</v>
+        <v>13259</v>
       </c>
       <c r="B300" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D300">
-        <v>116.5</v>
+        <v>837.5</v>
       </c>
       <c r="E300" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301">
-        <v>11846</v>
+        <v>13260</v>
       </c>
       <c r="B301" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D301">
-        <v>864</v>
+        <v>406.75</v>
       </c>
       <c r="E301" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302">
-        <v>11846</v>
+        <v>13264</v>
       </c>
       <c r="B302" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D302">
-        <v>108</v>
+        <v>408.75</v>
       </c>
       <c r="E302" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>11854</v>
+        <v>13272</v>
       </c>
       <c r="B303" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D303">
-        <v>318.75</v>
+        <v>287.5</v>
       </c>
       <c r="E303" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304">
-        <v>11868</v>
+        <v>13485</v>
       </c>
       <c r="B304" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>107.75</v>
+        <v>232.5</v>
       </c>
       <c r="E304" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305">
-        <v>11868</v>
+        <v>13486</v>
       </c>
       <c r="B305" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>862</v>
+        <v>235</v>
       </c>
       <c r="E305" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306">
-        <v>11885</v>
+        <v>13487</v>
       </c>
       <c r="B306" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306">
-        <v>150.25</v>
+        <v>235.25</v>
       </c>
       <c r="E306" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307">
-        <v>11885</v>
+        <v>13491</v>
       </c>
       <c r="B307" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D307">
-        <v>1202</v>
+        <v>72.5</v>
       </c>
       <c r="E307" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308">
-        <v>11887</v>
+        <v>13491</v>
       </c>
       <c r="B308" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>152</v>
+        <v>870</v>
       </c>
       <c r="E308" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309">
-        <v>11887</v>
+        <v>13962</v>
       </c>
       <c r="B309" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>1216</v>
+        <v>287</v>
       </c>
       <c r="E309" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310">
-        <v>11952</v>
+        <v>13964</v>
       </c>
       <c r="B310" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>146.25</v>
+        <v>287</v>
       </c>
       <c r="E310" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311">
-        <v>11953</v>
+        <v>19347</v>
       </c>
       <c r="B311" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>145.75</v>
+        <v>2052</v>
       </c>
       <c r="E311" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312">
-        <v>11960</v>
+        <v>19347</v>
       </c>
       <c r="B312" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312">
-        <v>57.25</v>
+        <v>342</v>
       </c>
       <c r="E312" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313">
-        <v>11960</v>
+        <v>19365</v>
       </c>
       <c r="B313" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313">
-        <v>229</v>
+        <v>197.5</v>
       </c>
       <c r="E313" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314">
-        <v>11965</v>
+        <v>19365</v>
       </c>
       <c r="B314" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>674.25</v>
+        <v>790</v>
       </c>
       <c r="E314" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315">
-        <v>12139</v>
+        <v>19371</v>
       </c>
       <c r="B315" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>219</v>
+        <v>789</v>
       </c>
       <c r="E315" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316">
-        <v>12141</v>
+        <v>19371</v>
       </c>
       <c r="B316" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>386.25</v>
+        <v>197.25</v>
       </c>
       <c r="E316" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317">
-        <v>12146</v>
+        <v>19373</v>
       </c>
       <c r="B317" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317">
-        <v>399.75</v>
+        <v>197.25</v>
       </c>
       <c r="E317" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318">
-        <v>12224</v>
+        <v>19373</v>
       </c>
       <c r="B318" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>179.25</v>
+        <v>789</v>
       </c>
       <c r="E318" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319">
-        <v>12239</v>
+        <v>19374</v>
       </c>
       <c r="B319" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>83.75</v>
+        <v>646.5</v>
       </c>
       <c r="E319" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320">
-        <v>12239</v>
+        <v>19374</v>
       </c>
       <c r="B320" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320">
-        <v>335</v>
+        <v>323.25</v>
       </c>
       <c r="E320" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321">
-        <v>12240</v>
+        <v>19931</v>
       </c>
       <c r="B321" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C321">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>109.5</v>
+        <v>69.5</v>
       </c>
       <c r="E321" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322">
-        <v>12240</v>
+        <v>19968</v>
       </c>
       <c r="B322" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D322">
-        <v>1314</v>
+        <v>939.75</v>
       </c>
       <c r="E322" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323">
-        <v>12304</v>
+        <v>19968</v>
       </c>
       <c r="B323" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D323">
-        <v>265.25</v>
+        <v>313.25</v>
       </c>
       <c r="E323" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324">
-        <v>12328</v>
+        <v>19969</v>
       </c>
       <c r="B324" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C324">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D324">
-        <v>44</v>
+        <v>1072.5</v>
       </c>
       <c r="E324" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325">
-        <v>12328</v>
+        <v>19969</v>
       </c>
       <c r="B325" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C325">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D325">
-        <v>264</v>
+        <v>357.5</v>
       </c>
       <c r="E325" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326">
-        <v>12343</v>
+        <v>19981</v>
       </c>
       <c r="B326" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326">
-        <v>47.75</v>
+        <v>464.25</v>
       </c>
       <c r="E326" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327">
-        <v>12344</v>
+        <v>19991</v>
       </c>
       <c r="B327" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327">
-        <v>46.25</v>
+        <v>467.75</v>
       </c>
       <c r="E327" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328">
-        <v>12346</v>
+        <v>19992</v>
       </c>
       <c r="B328" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>47.75</v>
+        <v>530.75</v>
       </c>
       <c r="E328" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329">
-        <v>12348</v>
+        <v>19993</v>
       </c>
       <c r="B329" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>47.75</v>
+        <v>469</v>
       </c>
       <c r="E329" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330">
-        <v>12350</v>
+        <v>20196</v>
       </c>
       <c r="B330" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330">
-        <v>49.25</v>
+        <v>104.5</v>
       </c>
       <c r="E330" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331">
-        <v>12352</v>
+        <v>20249</v>
       </c>
       <c r="B331" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D331">
-        <v>49.25</v>
+        <v>110.25</v>
       </c>
       <c r="E331" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332">
-        <v>12554</v>
+        <v>20249</v>
       </c>
       <c r="B332" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332">
-        <v>106.25</v>
+        <v>882</v>
       </c>
       <c r="E332" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333">
-        <v>12558</v>
+        <v>20259</v>
       </c>
       <c r="B333" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333">
-        <v>204.75</v>
+        <v>327.5</v>
       </c>
       <c r="E333" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334">
-        <v>12570</v>
+        <v>20682</v>
       </c>
       <c r="B334" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
       <c r="D334">
-        <v>150.25</v>
+        <v>46.5</v>
       </c>
       <c r="E334" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335">
-        <v>12613</v>
+        <v>20977</v>
       </c>
       <c r="B335" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335">
-        <v>316.5</v>
+        <v>776</v>
       </c>
       <c r="E335" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336">
-        <v>12873</v>
+        <v>21010</v>
       </c>
       <c r="B336" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336">
-        <v>65.75</v>
+        <v>104.5</v>
       </c>
       <c r="E336" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337">
-        <v>12979</v>
+        <v>21081</v>
       </c>
       <c r="B337" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
       <c r="D337">
-        <v>720</v>
+        <v>1575</v>
       </c>
       <c r="E337" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338">
-        <v>12979</v>
+        <v>21081</v>
       </c>
       <c r="B338" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C338">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D338">
-        <v>45</v>
+        <v>87.5</v>
       </c>
       <c r="E338" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339">
-        <v>12980</v>
+        <v>21269</v>
       </c>
       <c r="B339" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C339">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="E339" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340">
-        <v>12980</v>
+        <v>21269</v>
       </c>
       <c r="B340" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D340">
-        <v>720</v>
+        <v>93</v>
       </c>
       <c r="E340" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341">
-        <v>12993</v>
+        <v>21700</v>
       </c>
       <c r="B341" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>320</v>
+        <v>1134</v>
       </c>
       <c r="E341" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342">
-        <v>12993</v>
+        <v>21700</v>
       </c>
       <c r="B342" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C342">
         <v>3</v>
       </c>
       <c r="D342">
-        <v>16</v>
+        <v>94.5</v>
       </c>
       <c r="E342" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343">
-        <v>13023</v>
+        <v>21712</v>
       </c>
       <c r="B343" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343">
-        <v>600</v>
+        <v>13.25</v>
       </c>
       <c r="E343" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344">
-        <v>13023</v>
+        <v>21712</v>
       </c>
       <c r="B344" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C344">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344">
-        <v>50</v>
+        <v>477</v>
       </c>
       <c r="E344" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345">
-        <v>13037</v>
+        <v>21781</v>
       </c>
       <c r="B345" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D345">
-        <v>621</v>
+        <v>282</v>
       </c>
       <c r="E345" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>13037</v>
+        <v>21798</v>
       </c>
       <c r="B346" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D346">
-        <v>51.75</v>
+        <v>208</v>
       </c>
       <c r="E346" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347">
-        <v>13246</v>
+        <v>21807</v>
       </c>
       <c r="B347" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C347">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>206.25</v>
+        <v>299.25</v>
       </c>
       <c r="E347" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <v>13251</v>
+        <v>21946</v>
       </c>
       <c r="B348" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C348">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D348">
-        <v>346.25</v>
+        <v>378</v>
       </c>
       <c r="E348" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349">
-        <v>13257</v>
+        <v>22317</v>
       </c>
       <c r="B349" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C349">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>375</v>
+        <v>1164</v>
       </c>
       <c r="E349" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350">
-        <v>13257</v>
+        <v>22317</v>
       </c>
       <c r="B350" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C350">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D350">
-        <v>750</v>
+        <v>97</v>
       </c>
       <c r="E350" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <v>13259</v>
+        <v>22327</v>
       </c>
       <c r="B351" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C351">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D351">
-        <v>418.75</v>
+        <v>731</v>
       </c>
       <c r="E351" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <v>13259</v>
+        <v>22361</v>
       </c>
       <c r="B352" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C352">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D352">
-        <v>837.5</v>
+        <v>693.5</v>
       </c>
       <c r="E352" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <v>13260</v>
+        <v>23038</v>
       </c>
       <c r="B353" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C353">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D353">
-        <v>406.75</v>
+        <v>336</v>
       </c>
       <c r="E353" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354">
-        <v>13264</v>
+        <v>23038</v>
       </c>
       <c r="B354" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C354">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D354">
-        <v>408.75</v>
+        <v>28</v>
       </c>
       <c r="E354" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>13485</v>
+        <v>23234</v>
       </c>
       <c r="B355" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D355">
-        <v>237.25</v>
+        <v>305</v>
       </c>
       <c r="E355" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>13486</v>
+        <v>23234</v>
       </c>
       <c r="B356" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D356">
-        <v>237</v>
+        <v>915</v>
       </c>
       <c r="E356" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>13487</v>
+        <v>23237</v>
       </c>
       <c r="B357" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D357">
-        <v>233.25</v>
+        <v>394.75</v>
       </c>
       <c r="E357" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>13598</v>
+        <v>23237</v>
       </c>
       <c r="B358" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D358">
-        <v>90.25</v>
+        <v>789.5</v>
       </c>
       <c r="E358" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>13600</v>
+        <v>23239</v>
       </c>
       <c r="B359" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D359">
-        <v>82.75</v>
+        <v>788.5</v>
       </c>
       <c r="E359" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360">
-        <v>13608</v>
+        <v>23239</v>
       </c>
       <c r="B360" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D360">
-        <v>581.25</v>
+        <v>394.25</v>
       </c>
       <c r="E360" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361">
-        <v>19330</v>
+        <v>23598</v>
       </c>
       <c r="B361" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
       <c r="D361">
-        <v>431.25</v>
+        <v>769.5</v>
       </c>
       <c r="E361" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <v>19347</v>
+        <v>23598</v>
       </c>
       <c r="B362" t="s">
         <v>262</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D362">
-        <v>2052</v>
+        <v>128.25</v>
       </c>
       <c r="E362" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <v>19347</v>
+        <v>23992</v>
       </c>
       <c r="B363" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C363">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D363">
-        <v>342</v>
+        <v>344.75</v>
       </c>
       <c r="E363" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364">
-        <v>19365</v>
+        <v>23992</v>
       </c>
       <c r="B364" t="s">
         <v>263</v>
       </c>
       <c r="C364">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D364">
-        <v>197.5</v>
+        <v>689.5</v>
       </c>
       <c r="E364" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <v>19365</v>
+        <v>24120</v>
       </c>
       <c r="B365" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D365">
-        <v>790</v>
+        <v>46.5</v>
       </c>
       <c r="E365" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>19371</v>
+        <v>24120</v>
       </c>
       <c r="B366" t="s">
         <v>264</v>
@@ -7514,32 +7421,32 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>789</v>
+        <v>372</v>
       </c>
       <c r="E366" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>19371</v>
+        <v>24126</v>
       </c>
       <c r="B367" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D367">
-        <v>197.25</v>
+        <v>117</v>
       </c>
       <c r="E367" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>19373</v>
+        <v>24126</v>
       </c>
       <c r="B368" t="s">
         <v>265</v>
@@ -7548,32 +7455,32 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>789</v>
+        <v>1170</v>
       </c>
       <c r="E368" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>19373</v>
+        <v>24247</v>
       </c>
       <c r="B369" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D369">
-        <v>197.25</v>
+        <v>100.5</v>
       </c>
       <c r="E369" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>19374</v>
+        <v>24247</v>
       </c>
       <c r="B370" t="s">
         <v>266</v>
@@ -7582,877 +7489,112 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>646.5</v>
+        <v>1206</v>
       </c>
       <c r="E370" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>19374</v>
+        <v>24566</v>
       </c>
       <c r="B371" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D371">
-        <v>323.25</v>
+        <v>93.75</v>
       </c>
       <c r="E371" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>19882</v>
+        <v>24668</v>
       </c>
       <c r="B372" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
       <c r="D372">
-        <v>147</v>
+        <v>1009.25</v>
       </c>
       <c r="E372" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <v>19965</v>
+        <v>24723</v>
       </c>
       <c r="B373" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C373">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D373">
-        <v>780</v>
+        <v>513</v>
       </c>
       <c r="E373" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374">
-        <v>19965</v>
+        <v>24727</v>
       </c>
       <c r="B374" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C374">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D374">
-        <v>260</v>
+        <v>455.75</v>
       </c>
       <c r="E374" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375">
-        <v>19968</v>
+        <v>25344</v>
       </c>
       <c r="B375" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C375">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D375">
-        <v>313.25</v>
+        <v>231.25</v>
       </c>
       <c r="E375" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376">
-        <v>19968</v>
+        <v>25344</v>
       </c>
       <c r="B376" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C376">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D376">
-        <v>939.75</v>
+        <v>2775</v>
       </c>
       <c r="E376" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377">
-        <v>19981</v>
-      </c>
-      <c r="B377" t="s">
-        <v>270</v>
-      </c>
-      <c r="C377">
-        <v>2</v>
-      </c>
-      <c r="D377">
-        <v>464.25</v>
-      </c>
-      <c r="E377" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="A378">
-        <v>19985</v>
-      </c>
-      <c r="B378" t="s">
-        <v>271</v>
-      </c>
-      <c r="C378">
-        <v>2</v>
-      </c>
-      <c r="D378">
-        <v>463</v>
-      </c>
-      <c r="E378" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="A379">
-        <v>19991</v>
-      </c>
-      <c r="B379" t="s">
-        <v>272</v>
-      </c>
-      <c r="C379">
-        <v>2</v>
-      </c>
-      <c r="D379">
-        <v>467.75</v>
-      </c>
-      <c r="E379" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380">
-        <v>19992</v>
-      </c>
-      <c r="B380" t="s">
-        <v>273</v>
-      </c>
-      <c r="C380">
-        <v>2</v>
-      </c>
-      <c r="D380">
-        <v>528</v>
-      </c>
-      <c r="E380" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381">
-        <v>19993</v>
-      </c>
-      <c r="B381" t="s">
-        <v>274</v>
-      </c>
-      <c r="C381">
-        <v>2</v>
-      </c>
-      <c r="D381">
-        <v>469</v>
-      </c>
-      <c r="E381" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382">
-        <v>20196</v>
-      </c>
-      <c r="B382" t="s">
-        <v>275</v>
-      </c>
-      <c r="C382">
-        <v>2</v>
-      </c>
-      <c r="D382">
-        <v>104.5</v>
-      </c>
-      <c r="E382" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383">
-        <v>20249</v>
-      </c>
-      <c r="B383" t="s">
-        <v>276</v>
-      </c>
-      <c r="C383">
-        <v>3</v>
-      </c>
-      <c r="D383">
-        <v>110.25</v>
-      </c>
-      <c r="E383" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384">
-        <v>20249</v>
-      </c>
-      <c r="B384" t="s">
-        <v>276</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-      <c r="D384">
-        <v>882</v>
-      </c>
-      <c r="E384" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385">
-        <v>20259</v>
-      </c>
-      <c r="B385" t="s">
-        <v>277</v>
-      </c>
-      <c r="C385">
-        <v>2</v>
-      </c>
-      <c r="D385">
-        <v>327.5</v>
-      </c>
-      <c r="E385" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386">
-        <v>20969</v>
-      </c>
-      <c r="B386" t="s">
-        <v>278</v>
-      </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-      <c r="D386">
-        <v>600</v>
-      </c>
-      <c r="E386" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387">
-        <v>20969</v>
-      </c>
-      <c r="B387" t="s">
-        <v>278</v>
-      </c>
-      <c r="C387">
-        <v>3</v>
-      </c>
-      <c r="D387">
-        <v>50</v>
-      </c>
-      <c r="E387" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388">
-        <v>20977</v>
-      </c>
-      <c r="B388" t="s">
-        <v>279</v>
-      </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-      <c r="D388">
-        <v>776</v>
-      </c>
-      <c r="E388" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389">
-        <v>21081</v>
-      </c>
-      <c r="B389" t="s">
-        <v>280</v>
-      </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-      <c r="D389">
-        <v>1575</v>
-      </c>
-      <c r="E389" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390">
-        <v>21081</v>
-      </c>
-      <c r="B390" t="s">
-        <v>280</v>
-      </c>
-      <c r="C390">
-        <v>10</v>
-      </c>
-      <c r="D390">
-        <v>87.5</v>
-      </c>
-      <c r="E390" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391">
-        <v>21781</v>
-      </c>
-      <c r="B391" t="s">
-        <v>281</v>
-      </c>
-      <c r="C391">
-        <v>2</v>
-      </c>
-      <c r="D391">
-        <v>282</v>
-      </c>
-      <c r="E391" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392">
-        <v>21783</v>
-      </c>
-      <c r="B392" t="s">
-        <v>282</v>
-      </c>
-      <c r="C392">
-        <v>2</v>
-      </c>
-      <c r="D392">
-        <v>350.25</v>
-      </c>
-      <c r="E392" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393">
-        <v>21789</v>
-      </c>
-      <c r="B393" t="s">
-        <v>283</v>
-      </c>
-      <c r="C393">
-        <v>2</v>
-      </c>
-      <c r="D393">
-        <v>306.75</v>
-      </c>
-      <c r="E393" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394">
-        <v>21798</v>
-      </c>
-      <c r="B394" t="s">
-        <v>284</v>
-      </c>
-      <c r="C394">
-        <v>1</v>
-      </c>
-      <c r="D394">
-        <v>208</v>
-      </c>
-      <c r="E394" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395">
-        <v>22087</v>
-      </c>
-      <c r="B395" t="s">
-        <v>285</v>
-      </c>
-      <c r="C395">
-        <v>1</v>
-      </c>
-      <c r="D395">
-        <v>492</v>
-      </c>
-      <c r="E395" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396">
-        <v>22087</v>
-      </c>
-      <c r="B396" t="s">
-        <v>285</v>
-      </c>
-      <c r="C396">
-        <v>10</v>
-      </c>
-      <c r="D396">
-        <v>41</v>
-      </c>
-      <c r="E396" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397">
-        <v>22125</v>
-      </c>
-      <c r="B397" t="s">
-        <v>286</v>
-      </c>
-      <c r="C397">
-        <v>2</v>
-      </c>
-      <c r="D397">
-        <v>476.5</v>
-      </c>
-      <c r="E397" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398">
-        <v>22361</v>
-      </c>
-      <c r="B398" t="s">
-        <v>287</v>
-      </c>
-      <c r="C398">
-        <v>1</v>
-      </c>
-      <c r="D398">
-        <v>732</v>
-      </c>
-      <c r="E398" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399">
-        <v>22591</v>
-      </c>
-      <c r="B399" t="s">
-        <v>288</v>
-      </c>
-      <c r="C399">
-        <v>1</v>
-      </c>
-      <c r="D399">
-        <v>106</v>
-      </c>
-      <c r="E399" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400">
-        <v>22634</v>
-      </c>
-      <c r="B400" t="s">
-        <v>289</v>
-      </c>
-      <c r="C400">
-        <v>2</v>
-      </c>
-      <c r="D400">
-        <v>184.25</v>
-      </c>
-      <c r="E400" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401">
-        <v>22634</v>
-      </c>
-      <c r="B401" t="s">
-        <v>289</v>
-      </c>
-      <c r="C401">
-        <v>1</v>
-      </c>
-      <c r="D401">
-        <v>2211</v>
-      </c>
-      <c r="E401" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402">
-        <v>23038</v>
-      </c>
-      <c r="B402" t="s">
-        <v>290</v>
-      </c>
-      <c r="C402">
-        <v>10</v>
-      </c>
-      <c r="D402">
-        <v>28</v>
-      </c>
-      <c r="E402" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="A403">
-        <v>23038</v>
-      </c>
-      <c r="B403" t="s">
-        <v>290</v>
-      </c>
-      <c r="C403">
-        <v>1</v>
-      </c>
-      <c r="D403">
-        <v>336</v>
-      </c>
-      <c r="E403" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404">
-        <v>23235</v>
-      </c>
-      <c r="B404" t="s">
-        <v>291</v>
-      </c>
-      <c r="C404">
-        <v>25</v>
-      </c>
-      <c r="D404">
-        <v>360</v>
-      </c>
-      <c r="E404" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405">
-        <v>23235</v>
-      </c>
-      <c r="B405" t="s">
-        <v>291</v>
-      </c>
-      <c r="C405">
-        <v>29</v>
-      </c>
-      <c r="D405">
-        <v>1080</v>
-      </c>
-      <c r="E405" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406">
-        <v>23332</v>
-      </c>
-      <c r="B406" t="s">
-        <v>292</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-      <c r="D406">
-        <v>760.25</v>
-      </c>
-      <c r="E406" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407">
-        <v>23598</v>
-      </c>
-      <c r="B407" t="s">
-        <v>293</v>
-      </c>
-      <c r="C407">
-        <v>1</v>
-      </c>
-      <c r="D407">
-        <v>768</v>
-      </c>
-      <c r="E407" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408">
-        <v>23598</v>
-      </c>
-      <c r="B408" t="s">
-        <v>293</v>
-      </c>
-      <c r="C408">
-        <v>10</v>
-      </c>
-      <c r="D408">
-        <v>128</v>
-      </c>
-      <c r="E408" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409">
-        <v>23599</v>
-      </c>
-      <c r="B409" t="s">
-        <v>294</v>
-      </c>
-      <c r="C409">
-        <v>10</v>
-      </c>
-      <c r="D409">
-        <v>109.5</v>
-      </c>
-      <c r="E409" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410">
-        <v>23599</v>
-      </c>
-      <c r="B410" t="s">
-        <v>294</v>
-      </c>
-      <c r="C410">
-        <v>1</v>
-      </c>
-      <c r="D410">
-        <v>876</v>
-      </c>
-      <c r="E410" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411">
-        <v>23660</v>
-      </c>
-      <c r="B411" t="s">
-        <v>295</v>
-      </c>
-      <c r="C411">
-        <v>2</v>
-      </c>
-      <c r="D411">
-        <v>280.5</v>
-      </c>
-      <c r="E411" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412">
-        <v>23757</v>
-      </c>
-      <c r="B412" t="s">
-        <v>296</v>
-      </c>
-      <c r="C412">
-        <v>1</v>
-      </c>
-      <c r="D412">
-        <v>231</v>
-      </c>
-      <c r="E412" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413">
-        <v>24126</v>
-      </c>
-      <c r="B413" t="s">
-        <v>297</v>
-      </c>
-      <c r="C413">
-        <v>3</v>
-      </c>
-      <c r="D413">
-        <v>115.75</v>
-      </c>
-      <c r="E413" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414">
-        <v>24126</v>
-      </c>
-      <c r="B414" t="s">
-        <v>297</v>
-      </c>
-      <c r="C414">
-        <v>1</v>
-      </c>
-      <c r="D414">
-        <v>1157.5</v>
-      </c>
-      <c r="E414" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415">
-        <v>24127</v>
-      </c>
-      <c r="B415" t="s">
-        <v>298</v>
-      </c>
-      <c r="C415">
-        <v>1</v>
-      </c>
-      <c r="D415">
-        <v>1182.5</v>
-      </c>
-      <c r="E415" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416">
-        <v>24127</v>
-      </c>
-      <c r="B416" t="s">
-        <v>298</v>
-      </c>
-      <c r="C416">
-        <v>3</v>
-      </c>
-      <c r="D416">
-        <v>118.25</v>
-      </c>
-      <c r="E416" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417">
-        <v>24247</v>
-      </c>
-      <c r="B417" t="s">
-        <v>299</v>
-      </c>
-      <c r="C417">
-        <v>1</v>
-      </c>
-      <c r="D417">
-        <v>1206</v>
-      </c>
-      <c r="E417" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418">
-        <v>24247</v>
-      </c>
-      <c r="B418" t="s">
-        <v>299</v>
-      </c>
-      <c r="C418">
-        <v>3</v>
-      </c>
-      <c r="D418">
-        <v>100.5</v>
-      </c>
-      <c r="E418" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419">
-        <v>24256</v>
-      </c>
-      <c r="B419" t="s">
-        <v>300</v>
-      </c>
-      <c r="C419">
-        <v>1</v>
-      </c>
-      <c r="D419">
-        <v>205.5</v>
-      </c>
-      <c r="E419" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420">
-        <v>24668</v>
-      </c>
-      <c r="B420" t="s">
-        <v>301</v>
-      </c>
-      <c r="C420">
-        <v>1</v>
-      </c>
-      <c r="D420">
-        <v>1009.25</v>
-      </c>
-      <c r="E420" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421">
-        <v>24724</v>
-      </c>
-      <c r="B421" t="s">
-        <v>302</v>
-      </c>
-      <c r="C421">
-        <v>2</v>
-      </c>
-      <c r="D421">
-        <v>509.75</v>
-      </c>
-      <c r="E421" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
